--- a/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\diesel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291B6E10-E9D8-4A9D-B4DC-1D1CE9A607C4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="127">
   <si>
     <t>Unit</t>
   </si>
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -558,7 +558,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,8 +1284,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R12" totalsRowShown="0">
-  <autoFilter ref="A1:R12" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R14" totalsRowShown="0">
+  <autoFilter ref="A1:R14" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
@@ -1702,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -1878,7 +1877,7 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1944,10 +1943,36 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P14" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1976,7 +2001,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2416,33 +2441,33 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
         <v>1</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291B6E10-E9D8-4A9D-B4DC-1D1CE9A607C4}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A29021-06CC-43F8-B8AD-40A0C3C33CD7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-3840" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>Diesel_pipeline</t>
   </si>
   <si>
-    <t>Diesel_storage</t>
-  </si>
-  <si>
     <t>rwgs</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>power_steam</t>
+  </si>
+  <si>
+    <t>diesel_storage</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1860,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>42</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1932,20 +1932,20 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>89</v>
@@ -2000,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CABA7C5-6230-4207-9D35-0A95D86E66AC}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2215,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>78</v>
@@ -2223,10 +2223,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
@@ -2264,7 +2264,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2293,7 +2293,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>75</v>
@@ -2343,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>111</v>
@@ -2378,11 +2378,11 @@
         <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>75</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>89</v>
@@ -2425,7 +2425,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>89</v>
@@ -2454,7 +2454,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2724,22 +2724,22 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2891,16 +2891,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
@@ -2940,7 +2946,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3065,7 +3071,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A29021-06CC-43F8-B8AD-40A0C3C33CD7}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A6EEC3-9801-4217-83C9-08C5CBF564DD}"/>
   <bookViews>
-    <workbookView xWindow="-3840" yWindow="-21720" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="3120" yWindow="-21150" windowWidth="25020" windowHeight="19680" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1703,9 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2001,7 +1999,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2809,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\Products\diesel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{03E8FAFA-5122-4C31-B5F7-0204A3774FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A6EEC3-9801-4217-83C9-08C5CBF564DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F29A4A-EA87-4677-8B97-7434E8C6C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="-21150" windowWidth="25020" windowHeight="19680" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1703,7 +1703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1937,6 +1939,15 @@
       </c>
       <c r="C12" s="6" t="s">
         <v>116</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/diesel/Model_Data_Base_diesel_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\Products\diesel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/diesel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F29A4A-EA87-4677-8B97-7434E8C6C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B5F29A4A-EA87-4677-8B97-7434E8C6C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A063747-45E8-4ACC-B28D-EFAA07C39B8B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1908,9 +1908,6 @@
       <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="N10">
-        <v>1.4865951742627345E-3</v>
-      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -1923,9 +1920,6 @@
       </c>
       <c r="C11" t="s">
         <v>82</v>
-      </c>
-      <c r="N11">
-        <v>26.81</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
